--- a/Libro3.xlsx
+++ b/Libro3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calcivae\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calcivae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6BBB374-D020-4386-8F04-3E3F2270B747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF765A35-6945-421D-81FC-8F1B0154DA5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6694642D-423B-4143-83BC-AE84168E7BF7}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>Germany (until 1990 former territory of the FRG)</t>
-  </si>
-  <si>
     <t>EE</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Armenia</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -279,8 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +603,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +614,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -624,7 +625,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>112265</v>
       </c>
     </row>
@@ -635,7 +636,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>148635</v>
       </c>
     </row>
@@ -646,7 +647,7 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>139154</v>
       </c>
     </row>
@@ -657,7 +658,7 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>57034</v>
       </c>
     </row>
@@ -666,339 +667,339 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1">
         <v>1016581</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>18721</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>34259</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>143586</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>447877</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>659050</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>62642</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>706166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>6943</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>34471</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>47463</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>4467</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>155034</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>4067</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>170051</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>89875</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>518700</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>124175</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>333028</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>23006</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>72963</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>57580</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>88565</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>2333</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>41881</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>70559</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>7451</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>21086</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>124265</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>21570</v>
       </c>
     </row>
